--- a/resumes/关键字.xlsx
+++ b/resumes/关键字.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,22 @@
   </si>
   <si>
     <t>国籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源简历ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +441,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +489,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -494,15 +518,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -540,8 +565,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:O40" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:O40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:O42" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:O42"/>
   <tableColumns count="15">
     <tableColumn id="1" name="属性名" dataDxfId="0"/>
     <tableColumn id="2" name="属性说明"/>
@@ -826,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -841,11 +866,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -895,354 +920,382 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>86</v>
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" t="s">
-        <v>93</v>
+      <c r="A21" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>87</v>
+      <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
+      <c r="A25" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>88</v>
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" t="s">
-        <v>83</v>
+      <c r="A36" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>102</v>
+      <c r="A39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>104</v>
       </c>
     </row>

--- a/resumes/关键字.xlsx
+++ b/resumes/关键字.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="187">
   <si>
     <t>格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,13 +435,309 @@
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未婚|已婚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>career</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司所在城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underlings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>referees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下属人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证明人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +793,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -518,21 +823,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -565,10 +909,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:O42" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:O42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:O43" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:O43"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="属性名" dataDxfId="0"/>
+    <tableColumn id="1" name="属性名" dataDxfId="2"/>
     <tableColumn id="2" name="属性说明"/>
     <tableColumn id="3" name="格式"/>
     <tableColumn id="4" name="01"/>
@@ -585,6 +929,19 @@
     <tableColumn id="15" name="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A45:D80" totalsRowShown="0">
+  <autoFilter ref="A45:D80"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="列1" dataDxfId="1"/>
+    <tableColumn id="2" name="列2" dataDxfId="0"/>
+    <tableColumn id="3" name="列3"/>
+    <tableColumn id="4" name="列4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -851,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -866,11 +1223,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -920,7 +1277,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B3" t="s">
@@ -990,6 +1347,9 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
       <c r="D8" t="s">
         <v>66</v>
       </c>
@@ -1049,254 +1409,589 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>61</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1306,8 +2001,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resumes/关键字.xlsx
+++ b/resumes/关键字.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -581,10 +581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reportto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汇报对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,6 +727,10 @@
   </si>
   <si>
     <t>列4</t>
+  </si>
+  <si>
+    <t>report_to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -830,10 +830,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -853,8 +853,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -872,8 +870,6 @@
         <sz val="12"/>
         <color auto="1"/>
         <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -888,7 +884,6 @@
         <sz val="12"/>
         <color auto="1"/>
         <name val="等线"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1210,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1223,11 +1218,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1669,23 +1664,23 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="C45" t="s">
         <v>184</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>185</v>
-      </c>
-      <c r="D45" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C46" t="s">
@@ -1707,7 +1702,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C48" t="s">
@@ -1718,7 +1713,7 @@
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C49" t="s">
@@ -1729,7 +1724,7 @@
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D50" t="s">
@@ -1737,7 +1732,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>130</v>
       </c>
       <c r="D51" t="s">
@@ -1745,15 +1740,15 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" t="s">
         <v>151</v>
       </c>
-      <c r="D52" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D53" t="s">
@@ -1761,7 +1756,7 @@
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>134</v>
       </c>
       <c r="D54" t="s">
@@ -1769,7 +1764,7 @@
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D55" t="s">
@@ -1777,7 +1772,7 @@
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>138</v>
       </c>
       <c r="D56" t="s">
@@ -1785,7 +1780,7 @@
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D57" t="s">
@@ -1793,7 +1788,7 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D58" t="s">
@@ -1801,7 +1796,7 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>144</v>
       </c>
       <c r="D59" t="s">
@@ -1809,7 +1804,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>146</v>
       </c>
       <c r="D60" t="s">
@@ -1817,50 +1812,50 @@
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" t="s">
         <v>148</v>
       </c>
-      <c r="D61" t="s">
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="D62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D63" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="7" t="s">
+      <c r="D64" t="s">
         <v>156</v>
-      </c>
-      <c r="D64" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" t="s">
         <v>158</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>159</v>
       </c>
-      <c r="D65" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C66" t="s">
@@ -1871,77 +1866,77 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C67" t="s">
         <v>126</v>
       </c>
       <c r="D67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
+      <c r="D69" t="s">
         <v>163</v>
       </c>
-      <c r="D69" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
+      <c r="D70" t="s">
         <v>165</v>
       </c>
-      <c r="D70" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
+      <c r="D71" t="s">
         <v>167</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
+      <c r="D72" t="s">
         <v>169</v>
       </c>
-      <c r="D72" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
+      <c r="D73" t="s">
         <v>171</v>
-      </c>
-      <c r="D73" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74" t="s">
         <v>173</v>
       </c>
-      <c r="C74" t="s">
-        <v>159</v>
-      </c>
-      <c r="D74" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C75" t="s">
@@ -1952,46 +1947,46 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C76" t="s">
         <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" t="s">
         <v>175</v>
       </c>
-      <c r="D77" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="7" t="s">
+      <c r="D78" t="s">
         <v>177</v>
       </c>
-      <c r="D78" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="7" t="s">
+      <c r="D79" t="s">
         <v>179</v>
       </c>
-      <c r="D79" t="s">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="7" t="s">
+      <c r="D80" t="s">
         <v>181</v>
-      </c>
-      <c r="D80" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/resumes/关键字.xlsx
+++ b/resumes/关键字.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="185">
   <si>
     <t>格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,83 +569,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underlings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>referees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下属人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证明人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>performance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇报对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>underlings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司规模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>referees</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下属人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证明人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离职原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目经历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职责</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -736,8 +728,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,7 +975,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1018,7 +1010,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1195,21 +1187,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
@@ -1217,14 +1209,14 @@
     <col min="5" max="5" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="23.25">
       <c r="A1" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1271,7 +1263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>108</v>
       </c>
@@ -1291,7 +1283,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1305,12 +1297,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1321,7 +1313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1335,7 +1327,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1349,7 +1341,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>89</v>
       </c>
@@ -1357,7 +1349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1368,7 +1360,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1376,7 +1368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
@@ -1387,7 +1379,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -1395,7 +1387,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="4" t="s">
         <v>106</v>
       </c>
@@ -1403,7 +1395,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>113</v>
       </c>
@@ -1411,12 +1403,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1427,7 +1419,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1438,7 +1430,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>110</v>
       </c>
@@ -1446,7 +1438,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1454,7 +1446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1462,12 +1454,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -1478,7 +1470,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -1486,7 +1478,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -1494,12 +1486,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -1510,7 +1502,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -1521,7 +1513,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>100</v>
       </c>
@@ -1529,7 +1521,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
@@ -1540,7 +1532,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
@@ -1551,7 +1543,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -1562,7 +1554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
@@ -1573,7 +1565,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>95</v>
       </c>
@@ -1581,7 +1573,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -1592,7 +1584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>97</v>
       </c>
@@ -1600,12 +1592,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
@@ -1616,7 +1608,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
@@ -1627,7 +1619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
@@ -1638,7 +1630,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
@@ -1649,12 +1641,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>103</v>
       </c>
@@ -1662,21 +1654,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="D45" t="s">
         <v>183</v>
       </c>
-      <c r="C45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>115</v>
       </c>
@@ -1690,7 +1682,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>119</v>
       </c>
@@ -1701,7 +1693,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="B48" s="6" t="s">
         <v>122</v>
       </c>
@@ -1712,7 +1704,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4">
       <c r="B49" s="6" t="s">
         <v>125</v>
       </c>
@@ -1723,7 +1715,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4">
       <c r="B50" s="6" t="s">
         <v>128</v>
       </c>
@@ -1731,7 +1723,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4">
       <c r="B51" s="6" t="s">
         <v>130</v>
       </c>
@@ -1739,15 +1731,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4">
       <c r="B52" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" t="s">
         <v>150</v>
       </c>
-      <c r="D52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:4">
       <c r="B53" s="6" t="s">
         <v>132</v>
       </c>
@@ -1755,7 +1747,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4">
       <c r="B54" s="6" t="s">
         <v>134</v>
       </c>
@@ -1763,7 +1755,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4">
       <c r="B55" s="6" t="s">
         <v>136</v>
       </c>
@@ -1771,7 +1763,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4">
       <c r="B56" s="6" t="s">
         <v>138</v>
       </c>
@@ -1779,7 +1771,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4">
       <c r="B57" s="6" t="s">
         <v>140</v>
       </c>
@@ -1787,7 +1779,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4">
       <c r="B58" s="6" t="s">
         <v>142</v>
       </c>
@@ -1795,66 +1787,66 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4">
       <c r="B59" s="6" t="s">
         <v>144</v>
       </c>
       <c r="D59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
+      <c r="D60" t="s">
         <v>146</v>
       </c>
-      <c r="D60" t="s">
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" t="s">
+    <row r="62" spans="2:4">
+      <c r="B62" s="6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="D62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D63" t="s">
+    <row r="64" spans="2:4">
+      <c r="B64" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
+      <c r="D64" t="s">
         <v>155</v>
       </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="C65" t="s">
         <v>157</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>158</v>
       </c>
-      <c r="D65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4">
       <c r="B66" s="6" t="s">
         <v>122</v>
       </c>
@@ -1865,7 +1857,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="B67" s="6" t="s">
         <v>125</v>
       </c>
@@ -1873,69 +1865,69 @@
         <v>126</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="B68" s="6" t="s">
         <v>144</v>
       </c>
       <c r="D68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" s="6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
+      <c r="D69" t="s">
         <v>162</v>
       </c>
-      <c r="D69" t="s">
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="6" t="s">
+    <row r="71" spans="1:4">
+      <c r="B71" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="6" t="s">
+    <row r="72" spans="1:4">
+      <c r="B72" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
+    <row r="73" spans="1:4">
+      <c r="B73" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D73" t="s">
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C74" t="s">
-        <v>158</v>
-      </c>
-      <c r="D74" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="B75" s="6" t="s">
         <v>122</v>
       </c>
@@ -1946,7 +1938,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="B76" s="6" t="s">
         <v>125</v>
       </c>
@@ -1954,39 +1946,39 @@
         <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="B77" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
+    <row r="79" spans="1:4">
+      <c r="B79" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="6" t="s">
+    <row r="80" spans="1:4">
+      <c r="B80" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/resumes/关键字.xlsx
+++ b/resumes/关键字.xlsx
@@ -184,173 +184,500 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>last_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_salary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前薪资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_salary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望薪资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码：</t>
+  </si>
+  <si>
+    <t>年龄：</t>
+  </si>
+  <si>
+    <t>性别：</t>
+  </si>
+  <si>
+    <t>婚姻状况：</t>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>residence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地：</t>
+  </si>
+  <si>
+    <t>工作年限：</t>
+  </si>
+  <si>
+    <t>目前职业概况：</t>
+  </si>
+  <si>
+    <t>所在行业：</t>
+  </si>
+  <si>
+    <t>公司名称：</t>
+  </si>
+  <si>
+    <t>电子邮件：</t>
+  </si>
+  <si>
+    <t>教育程度：</t>
+  </si>
+  <si>
+    <t>所任职位：</t>
+  </si>
+  <si>
+    <t>目前薪金：</t>
+  </si>
+  <si>
+    <t>绩效奖金：</t>
+  </si>
+  <si>
+    <t>期望行业：</t>
+  </si>
+  <si>
+    <t>期望职位：</t>
+  </si>
+  <si>
+    <t>期望地点：</t>
+  </si>
+  <si>
+    <t>期望月薪：</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职意向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税前薪资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到岗时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>国籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源简历ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未婚|已婚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>career</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司所在城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>industry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>last_company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_salary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bonus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从事行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前薪资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_salary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望薪资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码：</t>
-  </si>
-  <si>
-    <t>年龄：</t>
-  </si>
-  <si>
-    <t>性别：</t>
-  </si>
-  <si>
-    <t>婚姻状况：</t>
-  </si>
-  <si>
-    <t>city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>residence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在地：</t>
-  </si>
-  <si>
-    <t>工作年限：</t>
-  </si>
-  <si>
-    <t>目前职业概况：</t>
-  </si>
-  <si>
-    <t>所在行业：</t>
-  </si>
-  <si>
-    <t>公司名称：</t>
-  </si>
-  <si>
-    <t>电子邮件：</t>
-  </si>
-  <si>
-    <t>教育程度：</t>
-  </si>
-  <si>
-    <t>所任职位：</t>
-  </si>
-  <si>
-    <t>目前薪金：</t>
-  </si>
-  <si>
-    <t>绩效奖金：</t>
-  </si>
-  <si>
-    <t>期望行业：</t>
-  </si>
-  <si>
-    <t>期望职位：</t>
-  </si>
-  <si>
-    <t>期望地点：</t>
-  </si>
-  <si>
-    <t>期望月薪：</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教育背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前状况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求职意向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身高</t>
+    <t>行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underlings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>referees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下属人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证明人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -358,370 +685,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>school</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>专业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base_front</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税前薪资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求职状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jump_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到岗时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>self_str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>国籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源简历ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未婚|已婚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子属性名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>career</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作经历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司所在城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
+    <t>degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>report_to</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>salary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薪资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>performance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇报对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>underlings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司规模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>referees</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下属人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证明人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离职原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目经历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职责</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>education</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教育经历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>school</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>major</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>degree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列1</t>
-  </si>
-  <si>
-    <t>列2</t>
-  </si>
-  <si>
-    <t>列3</t>
-  </si>
-  <si>
-    <t>列4</t>
-  </si>
-  <si>
-    <t>report_to</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1187,7 +1187,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1211,7 +1211,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="23.25">
       <c r="A1" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
         <v>108</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1324,7 +1324,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1335,18 +1335,18 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
         <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1357,7 +1357,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1370,42 +1370,42 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
         <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
         <v>106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
         <v>113</v>
-      </c>
-      <c r="B15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1416,7 +1416,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1427,15 +1427,15 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
         <v>110</v>
-      </c>
-      <c r="B19" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1456,7 +1456,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1467,28 +1467,28 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1499,7 +1499,7 @@
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1507,478 +1507,478 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
         <v>100</v>
-      </c>
-      <c r="B29" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
         <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
         <v>97</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
         <v>103</v>
-      </c>
-      <c r="B43" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" t="s">
         <v>181</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>182</v>
-      </c>
-      <c r="D45" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" t="s">
         <v>116</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>117</v>
-      </c>
-      <c r="D46" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" t="s">
         <v>119</v>
-      </c>
-      <c r="C47" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
         <v>122</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>123</v>
-      </c>
-      <c r="D48" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
         <v>125</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>126</v>
-      </c>
-      <c r="D49" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
         <v>128</v>
-      </c>
-      <c r="D50" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
         <v>130</v>
-      </c>
-      <c r="D51" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
         <v>149</v>
-      </c>
-      <c r="D52" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" t="s">
         <v>132</v>
-      </c>
-      <c r="D53" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
         <v>134</v>
-      </c>
-      <c r="D54" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" t="s">
         <v>136</v>
-      </c>
-      <c r="D55" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
         <v>138</v>
-      </c>
-      <c r="D56" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" t="s">
         <v>140</v>
-      </c>
-      <c r="D57" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" t="s">
         <v>142</v>
-      </c>
-      <c r="D58" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" t="s">
         <v>145</v>
-      </c>
-      <c r="D60" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" t="s">
         <v>154</v>
-      </c>
-      <c r="D64" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" t="s">
         <v>156</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>157</v>
-      </c>
-      <c r="D65" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="B66" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="B67" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" t="s">
         <v>125</v>
       </c>
-      <c r="C67" t="s">
-        <v>126</v>
-      </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="B68" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" t="s">
         <v>161</v>
-      </c>
-      <c r="D69" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="B70" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="B71" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" t="s">
         <v>164</v>
-      </c>
-      <c r="D71" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="B72" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" t="s">
         <v>166</v>
-      </c>
-      <c r="D72" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="B73" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" t="s">
         <v>168</v>
-      </c>
-      <c r="D73" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" t="s">
         <v>170</v>
-      </c>
-      <c r="C74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="B76" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" t="s">
         <v>125</v>
       </c>
-      <c r="C76" t="s">
-        <v>126</v>
-      </c>
       <c r="D76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="B77" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" t="s">
         <v>172</v>
-      </c>
-      <c r="D77" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="B78" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" t="s">
         <v>174</v>
-      </c>
-      <c r="D78" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" t="s">
         <v>176</v>
-      </c>
-      <c r="D79" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="B80" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" t="s">
         <v>178</v>
-      </c>
-      <c r="D80" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
